--- a/biology/Zoologie/Ecdyonurus/Ecdyonurus.xlsx
+++ b/biology/Zoologie/Ecdyonurus/Ecdyonurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecdyonurus est un genre d'insectes ailés de l'ordre des éphéméroptères.
-À la différence d'éphémères tels que les membres du genre Baetis, qui ont un œil double, apte à percevoir la polarisation de la lumière, les Ecdyonurus ont un œil simple[1], ce qui n'exclut pas qu'ils soient néanmoins sensibles à la polarisation de la lumière (polarotaxie).
+À la différence d'éphémères tels que les membres du genre Baetis, qui ont un œil double, apte à percevoir la polarisation de la lumière, les Ecdyonurus ont un œil simple, ce qui n'exclut pas qu'ils soient néanmoins sensibles à la polarisation de la lumière (polarotaxie).
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (4 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (4 janvier 2023) :
 Ecdyonurus bellus (Allen &amp; Cohen, 1977)
 Ecdyonurus criddlei (McDunnough, 1927)
 Ecdyonurus simplicioides (McDunnough, 1924)
-Selon NCBI  (4 janvier 2023)[3] :
+Selon NCBI  (4 janvier 2023) :
 Ecdyonurus asiaeminoris   
 Ecdyonurus aurantiacus
 Ecdyonurus aurasius   
